--- a/biology/Histoire de la zoologie et de la botanique/Académie_des_sciences_de_Californie/Académie_des_sciences_de_Californie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Académie_des_sciences_de_Californie/Académie_des_sciences_de_Californie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_des_sciences_de_Californie</t>
+          <t>Académie_des_sciences_de_Californie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Académie des sciences de Californie (en anglais, California Academy of Sciences) est l’un des dix plus grands musées d'histoire naturelle du monde et l’un des plus anciens des États-Unis d'Amérique. Il est localisé au Golden Gate Park à San Francisco. L’aquarium Steinhart et le planétarium Morrison se trouvent dans ses murs. L’Académie a été créée en 1853 comme une société savante et continue de soutenir de nombreux programmes de recherches[1] ainsi que des expositions publiques[2] et des activités pédagogiques[3]. Au début de 2020, avant la pandémie COVID-19, l'Académie des sciences de Californie employait environ 500 personnes et générait un revenu annuel d'environ 33 millions de dollars[4].
+L'Académie des sciences de Californie (en anglais, California Academy of Sciences) est l’un des dix plus grands musées d'histoire naturelle du monde et l’un des plus anciens des États-Unis d'Amérique. Il est localisé au Golden Gate Park à San Francisco. L’aquarium Steinhart et le planétarium Morrison se trouvent dans ses murs. L’Académie a été créée en 1853 comme une société savante et continue de soutenir de nombreux programmes de recherches ainsi que des expositions publiques et des activités pédagogiques. Au début de 2020, avant la pandémie COVID-19, l'Académie des sciences de Californie employait environ 500 personnes et générait un revenu annuel d'environ 33 millions de dollars.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_des_sciences_de_Californie</t>
+          <t>Académie_des_sciences_de_Californie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Programmes pédagogiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Académie attire environ 500 000 visiteurs chaque année. Les principales expositions ont toujours été centrées sur l'histoire naturelle avec des salles présentant des spécimens du monde entier, une galerie intitulée « la vie à travers le temps » (Life through Time) est consacrée à l'évolution et à la paléontologie. La biologie marine est particulièrement bien représentée avec un ancien aquarium présentant des poissons du monde entier.
 D'autres sciences y sont aussi représentées comme l'astronomie à travers le planétarium, la galerie sur les gemmes et les minéraux et un département consacré aux tremblements de terre – ce qui est parfaitement approprié considérant l'influence de ce phénomène sur San Francisco en général et l'Académie en particulier — qui inclut un simulateur pour recréer le séisme de Kōbe.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_des_sciences_de_Californie</t>
+          <t>Académie_des_sciences_de_Californie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Activités de recherches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Académie conduit des recherches dans des nombreux domaines, principalement mais pas exclusivement en biologie : anthropologie, biologie marine, botanique, entomologie, herpétologie, ichtyologie, zoologie des invertébrés, mammalogie et ornithologie. La géologie occupe aussi une part importante, notamment à travers la paléontologie. Les problèmes environnementaux font l’objet d’une attention particulière, à travers des études sur la systématique et la biodiversité.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_des_sciences_de_Californie</t>
+          <t>Académie_des_sciences_de_Californie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La California Academy of Natural Sciences (Académie des sciences naturelles de Californie) est fondée en 1853, seulement trois ans après le rattachement de la Californie aux États-Unis, devenant ainsi la première société savante de cette sorte à l’ouest du pays. Parmi ses buts initiaux, il y a une recherche systématique de chaque portion de cet État et la constitution d’une collection de ses productions précieuses et rares[5]. En 1868, l’institution est rebaptisé California Academy of Sciences (Académie des sciences de Californie).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La California Academy of Natural Sciences (Académie des sciences naturelles de Californie) est fondée en 1853, seulement trois ans après le rattachement de la Californie aux États-Unis, devenant ainsi la première société savante de cette sorte à l’ouest du pays. Parmi ses buts initiaux, il y a une recherche systématique de chaque portion de cet État et la constitution d’une collection de ses productions précieuses et rares. En 1868, l’institution est rebaptisé California Academy of Sciences (Académie des sciences de Californie).
 L’Académie s’est préoccupée de la place des femmes dans les sciences, adoptant une résolution dès sa première année d’existence pour assister les femmes dans les différents domaines des sciences naturelles et de solliciter leur collaboration. Ceci permet à plusieurs femmes botanistes, entomologistes et d’autres spécialités à venir travailler à l’Académie durant le XIXe siècle, à une époque où les opportunités offertes aux femmes scientifiques étaient très limitées, en dehors de l’étroit champ des travaux de calcul.
 Le premier musée d'histoire naturelle officiel de l’Académie est inauguré en 1874 au coin des rues California et Dupont (aujourd’hui la Grant Avenue dans l’actuel Chinatown) et attire 80 000 visiteurs par an. Pour répondre à cette popularité, l’Académie déménage en 1891 dans un plus grand et plus récent immeuble sur Market Street, grâce au legs de James Lick (1796-1876). Malheureusement, seulement quinze ans plus tard, le  tremblement de terre de 1906 à San Francisco détruit une  partie importante de la bibliothèque et des collections.
 Peu de temps après, une expédition dans les îles Galápagos (la première du genre à être subventionnée par l’Académie) rentre et regarnit les collections. L'Académie a donné son nom à l'Academy Bay, une baie de Santa Cruz.
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_des_sciences_de_Californie</t>
+          <t>Académie_des_sciences_de_Californie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,13 +632,85 @@
           <t>Bâtiment actuel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’architecte qui a été sélectionné est Renzo Piano qui a réalisé auparavant le centre Georges Pompidou de Paris. Après 10 ans de travaux et un investissement global de 500 millions de dollars[6], les nouveaux bâtiments ont ouvert leurs portes au public en 2008. Sur une superficie de 9 870 m2[7], ils abritent un aquarium, un planétarium, un cinéma 3D, deux restaurants et quelque 38 000 animaux vivants[7]. Ils ont été construits en respectant les règles de l'architecture verte : la toiture végétale produit de l'électricité grâce à des panneaux photovoltaïques, les murs sont isolés avec des jeans recyclés[6]. La façade évoque l’environnement naturel, le principal objet de recherche de l’Académie.
-Sous-sol
-Au sous-sol se trouve le grand aquarium : haut de plus de 7 mètres, il abrite plus de 3 000 poissons exotiques et reconstitue l'écosystème d'un récif corallien[8]. Le visiteur peut également voir la reconstitution d'un marais du Sud des États-Unis avec des alligators blancs et des tortues, ainsi qu'un aquarium consacré à la faune aquatique des côtes californiennes[8].
-Rez-de-chaussée
-Les pièces du rez-de-chaussée proposent aux visiteurs un diorama sur les milieux naturels africains et une serre présentant la forêt équatoriale. Des lieux d'exposition sur les séismes et sur la protection de l'environnement, un café et une boutique occupent le reste de ce niveau[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’architecte qui a été sélectionné est Renzo Piano qui a réalisé auparavant le centre Georges Pompidou de Paris. Après 10 ans de travaux et un investissement global de 500 millions de dollars, les nouveaux bâtiments ont ouvert leurs portes au public en 2008. Sur une superficie de 9 870 m2, ils abritent un aquarium, un planétarium, un cinéma 3D, deux restaurants et quelque 38 000 animaux vivants. Ils ont été construits en respectant les règles de l'architecture verte : la toiture végétale produit de l'électricité grâce à des panneaux photovoltaïques, les murs sont isolés avec des jeans recyclés. La façade évoque l’environnement naturel, le principal objet de recherche de l’Académie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Académie_des_sciences_de_Californie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acad%C3%A9mie_des_sciences_de_Californie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bâtiment actuel</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-sol</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sous-sol se trouve le grand aquarium : haut de plus de 7 mètres, il abrite plus de 3 000 poissons exotiques et reconstitue l'écosystème d'un récif corallien. Le visiteur peut également voir la reconstitution d'un marais du Sud des États-Unis avec des alligators blancs et des tortues, ainsi qu'un aquarium consacré à la faune aquatique des côtes californiennes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Académie_des_sciences_de_Californie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acad%C3%A9mie_des_sciences_de_Californie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bâtiment actuel</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Rez-de-chaussée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pièces du rez-de-chaussée proposent aux visiteurs un diorama sur les milieux naturels africains et une serre présentant la forêt équatoriale. Des lieux d'exposition sur les séismes et sur la protection de l'environnement, un café et une boutique occupent le reste de ce niveau.
 </t>
         </is>
       </c>
